--- a/Windows Application/Backend/Credentials.xlsx
+++ b/Windows Application/Backend/Credentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e46b87103324bb07/Documents/Python learning app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e46b87103324bb07/Documents/Python learning app/Backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104877799F43BE5BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{236A4BD9-3912-496A-9C94-D108A24A3F3B}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC104877799F43BE5BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2212F3E-9B00-47BB-B6FC-4A0B056E530D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,10 +103,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,7 +383,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +412,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>45714.666666666664</v>
+        <v>45716.666666666664</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
